--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H2">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N2">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O2">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P2">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q2">
-        <v>4.219767956851144</v>
+        <v>2.383630931442445</v>
       </c>
       <c r="R2">
-        <v>4.219767956851144</v>
+        <v>21.452678382982</v>
       </c>
       <c r="S2">
-        <v>0.001334183019131096</v>
+        <v>0.0006228826735053441</v>
       </c>
       <c r="T2">
-        <v>0.001334183019131096</v>
+        <v>0.000622882673505344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H3">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P3">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q3">
-        <v>0.670362494583131</v>
+        <v>0.4359437293811111</v>
       </c>
       <c r="R3">
-        <v>0.670362494583131</v>
+        <v>3.92349356443</v>
       </c>
       <c r="S3">
-        <v>0.0002119515257901953</v>
+        <v>0.000113919395856503</v>
       </c>
       <c r="T3">
-        <v>0.0002119515257901953</v>
+        <v>0.000113919395856503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H4">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N4">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O4">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P4">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q4">
-        <v>2.484686726161659</v>
+        <v>1.408083376827111</v>
       </c>
       <c r="R4">
-        <v>2.484686726161659</v>
+        <v>12.672750391444</v>
       </c>
       <c r="S4">
-        <v>0.0007855945805084137</v>
+        <v>0.000367955763078535</v>
       </c>
       <c r="T4">
-        <v>0.0007855945805084137</v>
+        <v>0.0003679557630785349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H5">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I5">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J5">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N5">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O5">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P5">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q5">
-        <v>4.154310202986448</v>
+        <v>4.215716268649111</v>
       </c>
       <c r="R5">
-        <v>4.154310202986448</v>
+        <v>37.941446417842</v>
       </c>
       <c r="S5">
-        <v>0.001313486946605367</v>
+        <v>0.001101637248249284</v>
       </c>
       <c r="T5">
-        <v>0.001313486946605367</v>
+        <v>0.001101637248249283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H6">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I6">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J6">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N6">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O6">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P6">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q6">
-        <v>32.93356914563132</v>
+        <v>19.85813923582622</v>
       </c>
       <c r="R6">
-        <v>32.93356914563132</v>
+        <v>178.723253122436</v>
       </c>
       <c r="S6">
-        <v>0.01041275472082341</v>
+        <v>0.005189264283698308</v>
       </c>
       <c r="T6">
-        <v>0.01041275472082341</v>
+        <v>0.005189264283698308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H7">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N7">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O7">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P7">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q7">
-        <v>102.1691944363534</v>
+        <v>4.434777342809334</v>
       </c>
       <c r="R7">
-        <v>102.1691944363534</v>
+        <v>39.91299608528401</v>
       </c>
       <c r="S7">
-        <v>0.03230329385149518</v>
+        <v>0.001158881574849501</v>
       </c>
       <c r="T7">
-        <v>0.03230329385149518</v>
+        <v>0.001158881574849501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H8">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J8">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P8">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q8">
-        <v>16.23084414883595</v>
+        <v>0.8110791600733336</v>
       </c>
       <c r="R8">
-        <v>16.23084414883595</v>
+        <v>7.299712440660001</v>
       </c>
       <c r="S8">
-        <v>0.005131779015095289</v>
+        <v>0.0002119485651015709</v>
       </c>
       <c r="T8">
-        <v>0.005131779015095289</v>
+        <v>0.0002119485651015708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H9">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J9">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N9">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O9">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P9">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q9">
-        <v>60.15933668259568</v>
+        <v>2.619758022925334</v>
       </c>
       <c r="R9">
-        <v>60.15933668259568</v>
+        <v>23.577822206328</v>
       </c>
       <c r="S9">
-        <v>0.01902084812834199</v>
+        <v>0.0006845866361825268</v>
       </c>
       <c r="T9">
-        <v>0.01902084812834199</v>
+        <v>0.0006845866361825267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H10">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J10">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N10">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O10">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P10">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q10">
-        <v>100.5843286213716</v>
+        <v>7.843396704289336</v>
       </c>
       <c r="R10">
-        <v>100.5843286213716</v>
+        <v>70.59057033860401</v>
       </c>
       <c r="S10">
-        <v>0.03180219969665733</v>
+        <v>0.002049610887359268</v>
       </c>
       <c r="T10">
-        <v>0.03180219969665733</v>
+        <v>0.002049610887359267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H11">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J11">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N11">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O11">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P11">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q11">
-        <v>797.3889237345546</v>
+        <v>36.94633459891467</v>
       </c>
       <c r="R11">
-        <v>797.3889237345546</v>
+        <v>332.517011390232</v>
       </c>
       <c r="S11">
-        <v>0.2521140433711748</v>
+        <v>0.009654695853971235</v>
       </c>
       <c r="T11">
-        <v>0.2521140433711748</v>
+        <v>0.009654695853971235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H12">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I12">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J12">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N12">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O12">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P12">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q12">
-        <v>185.8134440043381</v>
+        <v>111.0221323082791</v>
       </c>
       <c r="R12">
-        <v>185.8134440043381</v>
+        <v>999.1991907745121</v>
       </c>
       <c r="S12">
-        <v>0.05874947254252537</v>
+        <v>0.02901194210825114</v>
       </c>
       <c r="T12">
-        <v>0.05874947254252537</v>
+        <v>0.02901194210825113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H13">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I13">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J13">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N13">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O13">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P13">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q13">
-        <v>29.51877096644465</v>
+        <v>20.30490616809778</v>
       </c>
       <c r="R13">
-        <v>29.51877096644465</v>
+        <v>182.74415551288</v>
       </c>
       <c r="S13">
-        <v>0.009333082617755836</v>
+        <v>0.005306011963691993</v>
       </c>
       <c r="T13">
-        <v>0.009333082617755836</v>
+        <v>0.005306011963691991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H14">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I14">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J14">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N14">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O14">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P14">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q14">
-        <v>109.4108023429043</v>
+        <v>65.58415436763377</v>
       </c>
       <c r="R14">
-        <v>109.4108023429043</v>
+        <v>590.257389308704</v>
       </c>
       <c r="S14">
-        <v>0.03459290560240656</v>
+        <v>0.01713823766642345</v>
       </c>
       <c r="T14">
-        <v>0.03459290560240656</v>
+        <v>0.01713823766642345</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H15">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I15">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J15">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N15">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O15">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P15">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q15">
-        <v>182.9310744506663</v>
+        <v>196.3549822995858</v>
       </c>
       <c r="R15">
-        <v>182.9310744506663</v>
+        <v>1767.194840696272</v>
       </c>
       <c r="S15">
-        <v>0.05783814079331729</v>
+        <v>0.05131084461001162</v>
       </c>
       <c r="T15">
-        <v>0.05783814079331729</v>
+        <v>0.0513108446100116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H16">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I16">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J16">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N16">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O16">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P16">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q16">
-        <v>1450.19820257397</v>
+        <v>924.9305052028195</v>
       </c>
       <c r="R16">
-        <v>1450.19820257397</v>
+        <v>8324.374546825376</v>
       </c>
       <c r="S16">
-        <v>0.4585156899699355</v>
+        <v>0.2416998278918717</v>
       </c>
       <c r="T16">
-        <v>0.4585156899699355</v>
+        <v>0.2416998278918717</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H17">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I17">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J17">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N17">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O17">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P17">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q17">
-        <v>7.966659183018113</v>
+        <v>195.4284026039582</v>
       </c>
       <c r="R17">
-        <v>7.966659183018113</v>
+        <v>1758.855623435624</v>
       </c>
       <c r="S17">
-        <v>0.002518854474907925</v>
+        <v>0.05106871382104799</v>
       </c>
       <c r="T17">
-        <v>0.002518854474907925</v>
+        <v>0.05106871382104798</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H18">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I18">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J18">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N18">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O18">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P18">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q18">
-        <v>1.265602653518141</v>
+        <v>35.74202093719556</v>
       </c>
       <c r="R18">
-        <v>1.265602653518141</v>
+        <v>321.67818843476</v>
       </c>
       <c r="S18">
-        <v>0.0004001512847524389</v>
+        <v>0.009339988529336605</v>
       </c>
       <c r="T18">
-        <v>0.0004001512847524389</v>
+        <v>0.009339988529336601</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H19">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I19">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J19">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N19">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O19">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P19">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q19">
-        <v>4.690933844303151</v>
+        <v>115.4455085460676</v>
       </c>
       <c r="R19">
-        <v>4.690933844303151</v>
+        <v>1039.009576914608</v>
       </c>
       <c r="S19">
-        <v>0.001483153657483776</v>
+        <v>0.03016784438346047</v>
       </c>
       <c r="T19">
-        <v>0.001483153657483776</v>
+        <v>0.03016784438346047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H20">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I20">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J20">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N20">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O20">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P20">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q20">
-        <v>7.843079019071124</v>
+        <v>345.6368539885716</v>
       </c>
       <c r="R20">
-        <v>7.843079019071124</v>
+        <v>3110.731685897144</v>
       </c>
       <c r="S20">
-        <v>0.002479781578500952</v>
+        <v>0.09032069723314722</v>
       </c>
       <c r="T20">
-        <v>0.002479781578500952</v>
+        <v>0.09032069723314719</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H21">
+        <v>148.567768</v>
+      </c>
+      <c r="I21">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J21">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>32.87637133333333</v>
+      </c>
+      <c r="N21">
+        <v>98.629114</v>
+      </c>
+      <c r="O21">
+        <v>0.7016635066625658</v>
+      </c>
+      <c r="P21">
+        <v>0.7016635066625657</v>
+      </c>
+      <c r="Q21">
+        <v>1628.123036310839</v>
+      </c>
+      <c r="R21">
+        <v>14653.10732679755</v>
+      </c>
+      <c r="S21">
+        <v>0.4254558104090542</v>
+      </c>
+      <c r="T21">
+        <v>0.4254558104090541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.866572</v>
+      </c>
+      <c r="I22">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J22">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.946247666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.838743</v>
+      </c>
+      <c r="O22">
+        <v>0.08422273698876485</v>
+      </c>
+      <c r="P22">
+        <v>0.08422273698876484</v>
+      </c>
+      <c r="Q22">
+        <v>9.032397910999554</v>
+      </c>
+      <c r="R22">
+        <v>81.291581198996</v>
+      </c>
+      <c r="S22">
+        <v>0.00236031681111088</v>
+      </c>
+      <c r="T22">
+        <v>0.00236031681111088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.866572</v>
+      </c>
+      <c r="I23">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J23">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7217316666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.165195</v>
+      </c>
+      <c r="O23">
+        <v>0.01540354824953872</v>
+      </c>
+      <c r="P23">
+        <v>0.01540354824953871</v>
+      </c>
+      <c r="Q23">
+        <v>1.651940817948889</v>
+      </c>
+      <c r="R23">
+        <v>14.86746736154</v>
+      </c>
+      <c r="S23">
+        <v>0.0004316797955520466</v>
+      </c>
+      <c r="T23">
+        <v>0.0004316797955520465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.866572</v>
+      </c>
+      <c r="I24">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J24">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.331168666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.993506</v>
+      </c>
+      <c r="O24">
+        <v>0.04975293546513755</v>
+      </c>
+      <c r="P24">
+        <v>0.04975293546513754</v>
+      </c>
+      <c r="Q24">
+        <v>5.335712497936888</v>
+      </c>
+      <c r="R24">
+        <v>48.02141248143199</v>
+      </c>
+      <c r="S24">
+        <v>0.00139431101599256</v>
+      </c>
+      <c r="T24">
+        <v>0.00139431101599256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="H21">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="I21">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="J21">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>29.3744751134764</v>
-      </c>
-      <c r="N21">
-        <v>29.3744751134764</v>
-      </c>
-      <c r="O21">
-        <v>0.740701120684725</v>
-      </c>
-      <c r="P21">
-        <v>0.740701120684725</v>
-      </c>
-      <c r="Q21">
-        <v>62.17652812819372</v>
-      </c>
-      <c r="R21">
-        <v>62.17652812819372</v>
-      </c>
-      <c r="S21">
-        <v>0.01965863262279123</v>
-      </c>
-      <c r="T21">
-        <v>0.01965863262279123</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.866572</v>
+      </c>
+      <c r="I25">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J25">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.979377666666667</v>
+      </c>
+      <c r="N25">
+        <v>20.938133</v>
+      </c>
+      <c r="O25">
+        <v>0.1489572726339932</v>
+      </c>
+      <c r="P25">
+        <v>0.1489572726339931</v>
+      </c>
+      <c r="Q25">
+        <v>15.97479975445289</v>
+      </c>
+      <c r="R25">
+        <v>143.773197790076</v>
+      </c>
+      <c r="S25">
+        <v>0.004174482655225769</v>
+      </c>
+      <c r="T25">
+        <v>0.004174482655225769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.866572</v>
+      </c>
+      <c r="I26">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J26">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>32.87637133333333</v>
+      </c>
+      <c r="N26">
+        <v>98.629114</v>
+      </c>
+      <c r="O26">
+        <v>0.7016635066625658</v>
+      </c>
+      <c r="P26">
+        <v>0.7016635066625657</v>
+      </c>
+      <c r="Q26">
+        <v>75.24932361968976</v>
+      </c>
+      <c r="R26">
+        <v>677.243912577208</v>
+      </c>
+      <c r="S26">
+        <v>0.01966390822397035</v>
+      </c>
+      <c r="T26">
+        <v>0.01966390822397035</v>
       </c>
     </row>
   </sheetData>
